--- a/model_scripts/post_processing/SelectZone_ProjectVMT/VMT_subareaRTAC_Working_Spreadsheet_Template.xlsx
+++ b/model_scripts/post_processing/SelectZone_ProjectVMT/VMT_subareaRTAC_Working_Spreadsheet_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\SACSIM19\2020MTP\SACSIM19_scripts\Post_Processing\SelectZone_ProjectVMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshipley\GitHubRepo\SACSIM19\model_scripts\post_processing\SelectZone_ProjectVMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A29E93-B893-4847-8473-173535E57DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00931C92-CDED-4F81-9EAA-E4AFA40D275C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35160" yWindow="3405" windowWidth="15330" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="218">
   <si>
     <t>A</t>
   </si>
@@ -720,6 +720,18 @@
   </si>
   <si>
     <t>Make sure VMT by speed bins matches Project Area VMT totals. Clean up rounding if needed.</t>
+  </si>
+  <si>
+    <t>PROJECT1='40,41,42'</t>
+  </si>
+  <si>
+    <t>Note: If you do not need more space add comma at end, if not, leave Project2 or Project3 lines for TAZ's with a single space ex:</t>
+  </si>
+  <si>
+    <t>PROJECT2='  '</t>
+  </si>
+  <si>
+    <t>PROJECT3='  '</t>
   </si>
 </sst>
 </file>
@@ -1712,10 +1724,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,56 +1811,76 @@
         <v>205</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="59" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="59" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>6</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>210</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>210</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7814,9 +7846,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8031,27 +8066,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52ED0A8-3E6F-408D-B902-CAA8401C72D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A25175C-AB65-4FDA-B97B-E93C4ADB6C0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="25a94bb0-6460-4ca1-8de4-631d22d9a893"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7449ca1-7337-4f92-8d11-8333e51de2d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8076,9 +8099,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A25175C-AB65-4FDA-B97B-E93C4ADB6C0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52ED0A8-3E6F-408D-B902-CAA8401C72D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="25a94bb0-6460-4ca1-8de4-631d22d9a893"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e7449ca1-7337-4f92-8d11-8333e51de2d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>